--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="4160" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="9060" yWindow="6500" windowWidth="28800" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Stack</t>
   </si>
@@ -55,12 +55,33 @@
   <si>
     <t>Dict</t>
   </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>MDict</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>BSTree</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +101,19 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +353,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N27"/>
+  <dimension ref="B3:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +653,15 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -658,7 +711,7 @@
         <f>SUM(C5:F5)</f>
         <v>105.654</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="16">
         <f>G5/4</f>
         <v>26.413499999999999</v>
       </c>
@@ -683,7 +736,7 @@
         <f>SUM(C6:F6)</f>
         <v>0.60299999999999998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="16">
         <f>G6/4</f>
         <v>0.15075</v>
       </c>
@@ -741,7 +794,7 @@
         <f>SUM(C9:H9)</f>
         <v>124.015</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="16">
         <f>I9/6</f>
         <v>20.669166666666666</v>
       </c>
@@ -772,7 +825,7 @@
         <f>SUM(C10:H10)</f>
         <v>1.7810000000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="16">
         <f>I10/6</f>
         <v>0.29683333333333334</v>
       </c>
@@ -826,7 +879,7 @@
         <v>1749.1480000000001</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13">
+      <c r="J13" s="16">
         <f>H13/5</f>
         <v>349.82960000000003</v>
       </c>
@@ -855,7 +908,7 @@
         <v>23.893000000000001</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14">
+      <c r="J14" s="16">
         <f>H14/5</f>
         <v>4.7786</v>
       </c>
@@ -931,7 +984,7 @@
         <f>SUM(C17:K17)</f>
         <v>216.21299999999997</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="16">
         <f>L17/9</f>
         <v>24.023666666666664</v>
       </c>
@@ -971,7 +1024,7 @@
         <f>SUM(C18:K18)</f>
         <v>3.7440000000000007</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="16">
         <f>L18/9</f>
         <v>0.41600000000000009</v>
       </c>
@@ -1047,7 +1100,7 @@
         <f>SUM(C21:K21)</f>
         <v>181.35500000000002</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="16">
         <f>L21/9</f>
         <v>20.150555555555556</v>
       </c>
@@ -1087,7 +1140,7 @@
         <f>SUM(C22:K22)</f>
         <v>13.579000000000001</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="16">
         <f>L22/9</f>
         <v>1.5087777777777778</v>
       </c>
@@ -1129,19 +1182,31 @@
       <c r="C25" s="6">
         <v>19.422999999999998</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="D25" s="7">
+        <v>14.955</v>
+      </c>
+      <c r="E25" s="7">
+        <v>12.645</v>
+      </c>
+      <c r="F25" s="7">
+        <v>11.725</v>
+      </c>
+      <c r="G25" s="7">
+        <v>14.465</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11.792999999999999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>24.123999999999999</v>
+      </c>
       <c r="J25" s="8">
         <f>SUM(C25:I25)</f>
-        <v>19.422999999999998</v>
-      </c>
-      <c r="L25">
-        <f>J25/6</f>
-        <v>3.2371666666666665</v>
+        <v>109.13</v>
+      </c>
+      <c r="L25" s="16">
+        <f>J25/7</f>
+        <v>15.59</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1151,22 +1216,505 @@
       <c r="C26" s="10">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="D26" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H26" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="J26" s="12">
         <f>SUM(C26:I26)</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="L26">
-        <f>J26/6</f>
-        <v>3.3166666666666671E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>0.6180000000000001</v>
+      </c>
+      <c r="L26" s="16">
+        <f>J26/7</f>
+        <v>8.8285714285714301E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13">
+        <v>5</v>
+      </c>
+      <c r="H28" s="13">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>23.52</v>
+      </c>
+      <c r="D29" s="7">
+        <v>64.152000000000001</v>
+      </c>
+      <c r="E29" s="7">
+        <v>121.497</v>
+      </c>
+      <c r="F29" s="7">
+        <v>58.012</v>
+      </c>
+      <c r="G29" s="7">
+        <v>18.215</v>
+      </c>
+      <c r="H29" s="7">
+        <v>85.792000000000002</v>
+      </c>
+      <c r="I29" s="8">
+        <f>SUM(C29:H29)</f>
+        <v>371.18799999999999</v>
+      </c>
+      <c r="K29" s="16">
+        <f>I29/6</f>
+        <v>61.864666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.122</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G30" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H30" s="11">
+        <v>121.291</v>
+      </c>
+      <c r="I30" s="12">
+        <f>SUM(C30:H30)</f>
+        <v>122.371</v>
+      </c>
+      <c r="K30" s="16">
+        <f>I30/6</f>
+        <v>20.395166666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13">
+        <v>4</v>
+      </c>
+      <c r="G32" s="13">
+        <v>5</v>
+      </c>
+      <c r="H32" s="13">
+        <v>6</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>48.38</v>
+      </c>
+      <c r="D33" s="7">
+        <v>154.30600000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>96.319000000000003</v>
+      </c>
+      <c r="F33" s="7">
+        <v>64.257000000000005</v>
+      </c>
+      <c r="G33" s="7">
+        <v>70.926000000000002</v>
+      </c>
+      <c r="H33" s="7">
+        <v>48.783000000000001</v>
+      </c>
+      <c r="I33" s="7">
+        <v>44.203000000000003</v>
+      </c>
+      <c r="J33" s="8">
+        <f>SUM(C33:I33)</f>
+        <v>527.17399999999998</v>
+      </c>
+      <c r="L33" s="16">
+        <f>J33/7</f>
+        <v>75.310571428571421</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J34" s="12">
+        <f>SUM(C34:I34)</f>
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="L34" s="16">
+        <f>J34/7</f>
+        <v>0.33028571428571424</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13">
+        <v>3</v>
+      </c>
+      <c r="F36" s="13">
+        <v>4</v>
+      </c>
+      <c r="G36" s="13">
+        <v>5</v>
+      </c>
+      <c r="H36" s="13">
+        <v>6</v>
+      </c>
+      <c r="I36" s="13">
+        <v>7</v>
+      </c>
+      <c r="J36" s="13">
+        <v>8</v>
+      </c>
+      <c r="K36" s="13">
+        <v>9</v>
+      </c>
+      <c r="L36" s="13">
+        <v>10</v>
+      </c>
+      <c r="M36" s="13">
+        <v>11</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>85.959000000000003</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1493.6849999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>42.012999999999998</v>
+      </c>
+      <c r="F37" s="7">
+        <v>140.453</v>
+      </c>
+      <c r="G37" s="7">
+        <v>101.97499999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>92.945999999999998</v>
+      </c>
+      <c r="I37" s="7">
+        <v>116.113</v>
+      </c>
+      <c r="J37" s="7">
+        <v>291.01299999999998</v>
+      </c>
+      <c r="K37" s="7">
+        <v>74.911000000000001</v>
+      </c>
+      <c r="L37" s="7">
+        <v>150.37200000000001</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1016.535</v>
+      </c>
+      <c r="N37" s="8">
+        <f>SUM(C37:M37)</f>
+        <v>3605.9749999999995</v>
+      </c>
+      <c r="P37" s="16">
+        <f>N37/11</f>
+        <v>327.81590909090903</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="D38" s="11">
+        <v>16.846</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1.702</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1.714</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1.827</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1.107</v>
+      </c>
+      <c r="M38" s="11">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="N38" s="12">
+        <f>SUM(C38:M38)</f>
+        <v>42.853999999999999</v>
+      </c>
+      <c r="P38" s="16">
+        <f>N38/11</f>
+        <v>3.8958181818181816</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13">
+        <v>3</v>
+      </c>
+      <c r="F40" s="13">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>69.013999999999996</v>
+      </c>
+      <c r="D41" s="7">
+        <v>726.22</v>
+      </c>
+      <c r="E41" s="7">
+        <v>97.042000000000002</v>
+      </c>
+      <c r="F41" s="7">
+        <v>426.09699999999998</v>
+      </c>
+      <c r="G41" s="8">
+        <f>SUM(C41:F41)</f>
+        <v>1318.373</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="16">
+        <f>G41/4</f>
+        <v>329.59325000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="D42" s="11">
+        <v>13.029</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1.754</v>
+      </c>
+      <c r="F42" s="11">
+        <v>9.8640000000000008</v>
+      </c>
+      <c r="G42" s="12">
+        <f>SUM(C42:F42)</f>
+        <v>26.428000000000001</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="16">
+        <f>G42/4</f>
+        <v>6.6070000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
+      <c r="E44" s="13">
+        <v>3</v>
+      </c>
+      <c r="F44" s="13">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>28.385999999999999</v>
+      </c>
+      <c r="D45" s="7">
+        <v>15.676</v>
+      </c>
+      <c r="E45" s="7">
+        <v>129.64699999999999</v>
+      </c>
+      <c r="F45" s="7">
+        <v>70.045000000000002</v>
+      </c>
+      <c r="G45" s="8">
+        <f>SUM(C45:F45)</f>
+        <v>243.75400000000002</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="16">
+        <f>G45/4</f>
+        <v>60.938500000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.121</v>
+      </c>
+      <c r="D46" s="11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G46" s="12">
+        <f>SUM(C46:F46)</f>
+        <v>1.827</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="16">
+        <f>G46/4</f>
+        <v>0.45674999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1656,11 +1656,18 @@
       <c r="F44" s="13">
         <v>4</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="17"/>
+      <c r="G44" s="13">
+        <v>5</v>
+      </c>
+      <c r="H44" s="13">
+        <v>6</v>
+      </c>
+      <c r="I44" s="13">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
@@ -1676,16 +1683,24 @@
         <v>129.64699999999999</v>
       </c>
       <c r="F45" s="7">
-        <v>70.045000000000002</v>
-      </c>
-      <c r="G45" s="8">
-        <f>SUM(C45:F45)</f>
-        <v>243.75400000000002</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="16">
-        <f>G45/4</f>
-        <v>60.938500000000005</v>
+        <v>74.781999999999996</v>
+      </c>
+      <c r="G45" s="7">
+        <v>57.305999999999997</v>
+      </c>
+      <c r="H45" s="7">
+        <v>88.856999999999999</v>
+      </c>
+      <c r="I45" s="7">
+        <v>126.07</v>
+      </c>
+      <c r="J45" s="8">
+        <f>SUM(C45:I45)</f>
+        <v>520.72399999999993</v>
+      </c>
+      <c r="L45" s="16">
+        <f>J45/7</f>
+        <v>74.389142857142843</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1702,16 +1717,24 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="F46" s="11">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="G46" s="12">
-        <f>SUM(C46:F46)</f>
-        <v>1.827</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="16">
-        <f>G46/4</f>
-        <v>0.45674999999999999</v>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G46" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.185</v>
+      </c>
+      <c r="J46" s="12">
+        <f>SUM(C46:I46)</f>
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="L46" s="16">
+        <f>J46/7</f>
+        <v>0.41742857142857143</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Stack</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Bag</t>
+  </si>
+  <si>
+    <t>Q-PRI</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P47"/>
+  <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,7 +1740,72 @@
         <v>0.41742857142857143</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="D49" s="7">
+        <v>84.834999999999994</v>
+      </c>
+      <c r="E49" s="7">
+        <v>76.694999999999993</v>
+      </c>
+      <c r="F49" s="8">
+        <f>SUM(C49:D49)</f>
+        <v>154.90499999999997</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16">
+        <f>SUM(C49:D49)/2</f>
+        <v>77.452499999999986</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F50" s="12">
+        <f>SUM(C50:D50)</f>
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16">
+        <f>SUM(C50:D50)/2</f>
+        <v>0.45550000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
